--- a/Vorstudie-Data/Sona Results/results-SONA.xlsx
+++ b/Vorstudie-Data/Sona Results/results-SONA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Sona Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasoberfrank/Documents/Uni Hamburg/Master-Thesis/Statistics-Virtual-Agents-MA/Vorstudie-Data/Sona Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C1FD1-7D64-1545-9266-C8E06894024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55030E66-B2AB-E148-96EE-4CE5C4BD689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17480" windowHeight="19440" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47840" yWindow="2740" windowWidth="17480" windowHeight="18880" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bewertung virtueller Charaktere" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="279">
   <si>
     <t>id. Antwort ID</t>
   </si>
@@ -671,6 +671,192 @@
   </si>
   <si>
     <t>Mehrmals in der Woche</t>
+  </si>
+  <si>
+    <t>2024-07-01 19:17:12</t>
+  </si>
+  <si>
+    <t>2024-07-01 19:10:04</t>
+  </si>
+  <si>
+    <t>https://unihamburg.sona-systems.com/exp_sign_up.aspx?experiment_id=2426&amp;timeslot_id=126712</t>
+  </si>
+  <si>
+    <t>EL08LF13</t>
+  </si>
+  <si>
+    <t>2024-07-02 12:35:57</t>
+  </si>
+  <si>
+    <t>2024-07-02 12:28:38</t>
+  </si>
+  <si>
+    <t>KE04IN04</t>
+  </si>
+  <si>
+    <t>2024-07-02 14:10:31</t>
+  </si>
+  <si>
+    <t>2024-07-02 14:01:33</t>
+  </si>
+  <si>
+    <t>LE06CH19</t>
+  </si>
+  <si>
+    <t>2024-07-02 15:00:06</t>
+  </si>
+  <si>
+    <t>2024-07-02 14:51:04</t>
+  </si>
+  <si>
+    <t>NA04ER02</t>
+  </si>
+  <si>
+    <t>2024-07-02 21:09:07</t>
+  </si>
+  <si>
+    <t>2024-07-02 21:02:41</t>
+  </si>
+  <si>
+    <t>NZ5EN09</t>
+  </si>
+  <si>
+    <t>Täglich</t>
+  </si>
+  <si>
+    <t>ZA08ER05</t>
+  </si>
+  <si>
+    <t>2024-07-03 13:08:56</t>
+  </si>
+  <si>
+    <t>2024-07-03 13:01:39</t>
+  </si>
+  <si>
+    <t>AXQhNFqBXS8HYYPYf#&amp;S$8yoJ?YojyG4&amp;YhNDMG8</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>2024-07-03 13:44:20</t>
+  </si>
+  <si>
+    <t>2024-07-03 13:08:52</t>
+  </si>
+  <si>
+    <t>https://studentische-umfragen.uni-hamburg.de/index.php/647144</t>
+  </si>
+  <si>
+    <t>2024-07-03 13:37:03</t>
+  </si>
+  <si>
+    <t>2024-07-03 13:31:54</t>
+  </si>
+  <si>
+    <t>KASU27</t>
+  </si>
+  <si>
+    <t>2024-07-03 14:24:18</t>
+  </si>
+  <si>
+    <t>2024-07-03 14:11:20</t>
+  </si>
+  <si>
+    <t>KE06ER24</t>
+  </si>
+  <si>
+    <t>Nicht binär</t>
+  </si>
+  <si>
+    <t>2024-07-03 20:20:42</t>
+  </si>
+  <si>
+    <t>2024-07-03 20:07:30</t>
+  </si>
+  <si>
+    <t>CK07NS05</t>
+  </si>
+  <si>
+    <t>2024-07-04 09:01:36</t>
+  </si>
+  <si>
+    <t>2024-07-04 08:54:42</t>
+  </si>
+  <si>
+    <t>ER06AR05</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:42:42</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:30:45</t>
+  </si>
+  <si>
+    <t>ER07UE17</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:24:07</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:12:31</t>
+  </si>
+  <si>
+    <t>UR04IO03</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:34:47</t>
+  </si>
+  <si>
+    <t>2024-07-04 15:30:16</t>
+  </si>
+  <si>
+    <t>CAWO307</t>
+  </si>
+  <si>
+    <t>2024-07-04 18:06:16</t>
+  </si>
+  <si>
+    <t>2024-07-04 17:54:49</t>
+  </si>
+  <si>
+    <t>TZ09CH25</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:12:00</t>
+  </si>
+  <si>
+    <t>2024-07-04 19:04:45</t>
+  </si>
+  <si>
+    <t>CH4US24</t>
+  </si>
+  <si>
+    <t>2024-07-05 01:13:09</t>
+  </si>
+  <si>
+    <t>2024-07-05 01:08:31</t>
+  </si>
+  <si>
+    <t>RR06LG06</t>
+  </si>
+  <si>
+    <t>2024-07-06 20:01:48</t>
+  </si>
+  <si>
+    <t>2024-07-06 19:51:05</t>
+  </si>
+  <si>
+    <t>NN09ES02</t>
+  </si>
+  <si>
+    <t>2024-07-07 22:59:47</t>
+  </si>
+  <si>
+    <t>2024-07-07 22:50:21</t>
+  </si>
+  <si>
+    <t>PE05RE11</t>
   </si>
 </sst>
 </file>
@@ -1048,13 +1234,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FA16"/>
+  <dimension ref="A1:FA35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="11.5"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
@@ -1062,7 +1248,7 @@
     <col min="10" max="1024" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:157" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1721,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>88</v>
       </c>
@@ -1966,7 +2152,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="3" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>89</v>
       </c>
@@ -2397,7 +2583,7 @@
         <v>16.71</v>
       </c>
     </row>
-    <row r="4" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>90</v>
       </c>
@@ -2828,7 +3014,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="5" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>91</v>
       </c>
@@ -3259,7 +3445,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="6" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>92</v>
       </c>
@@ -3693,7 +3879,7 @@
         <v>23.64</v>
       </c>
     </row>
-    <row r="7" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>93</v>
       </c>
@@ -4121,7 +4307,7 @@
         <v>22.87</v>
       </c>
     </row>
-    <row r="8" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>94</v>
       </c>
@@ -4552,7 +4738,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="9" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>95</v>
       </c>
@@ -4980,7 +5166,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="10" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>96</v>
       </c>
@@ -5411,7 +5597,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="11" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>97</v>
       </c>
@@ -5842,7 +6028,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="12" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -6273,7 +6459,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="13" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>99</v>
       </c>
@@ -6704,7 +6890,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="14" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -7135,7 +7321,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="15" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -7563,7 +7749,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="16" spans="1:157" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:157" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>104</v>
       </c>
@@ -7992,6 +8178,8177 @@
       </c>
       <c r="EW16" s="1">
         <v>21.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1971974549</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>3</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR17" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>4</v>
+      </c>
+      <c r="CV17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW17" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX17" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY17" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA17" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS17" s="1">
+        <v>4</v>
+      </c>
+      <c r="DT17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DU17" s="1">
+        <v>2</v>
+      </c>
+      <c r="DV17" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW17" s="1">
+        <v>4</v>
+      </c>
+      <c r="DX17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY17" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ17" s="1">
+        <v>5</v>
+      </c>
+      <c r="EA17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB17" s="1">
+        <v>27</v>
+      </c>
+      <c r="EC17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG17" s="1">
+        <v>427.89</v>
+      </c>
+      <c r="EH17" s="1">
+        <v>103.98</v>
+      </c>
+      <c r="EK17" s="1">
+        <v>48.84</v>
+      </c>
+      <c r="EM17" s="1">
+        <v>51.08</v>
+      </c>
+      <c r="EO17" s="1">
+        <v>49.21</v>
+      </c>
+      <c r="EQ17" s="1">
+        <v>38.54</v>
+      </c>
+      <c r="ES17" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="EU17" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="EW17" s="1">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>106</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1536073754</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>3</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW18" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY18" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI18" s="1">
+        <v>2</v>
+      </c>
+      <c r="DJ18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL18" s="1">
+        <v>2</v>
+      </c>
+      <c r="DM18" s="1">
+        <v>2</v>
+      </c>
+      <c r="DN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO18" s="1">
+        <v>2</v>
+      </c>
+      <c r="DP18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR18" s="1">
+        <v>4</v>
+      </c>
+      <c r="DS18" s="1">
+        <v>4</v>
+      </c>
+      <c r="DT18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU18" s="1">
+        <v>4</v>
+      </c>
+      <c r="DV18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW18" s="1">
+        <v>4</v>
+      </c>
+      <c r="DX18" s="1">
+        <v>4</v>
+      </c>
+      <c r="DY18" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ18" s="1">
+        <v>4</v>
+      </c>
+      <c r="EA18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB18" s="1">
+        <v>22</v>
+      </c>
+      <c r="EC18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG18" s="1">
+        <v>436.1</v>
+      </c>
+      <c r="EH18" s="1">
+        <v>34.69</v>
+      </c>
+      <c r="EK18" s="1">
+        <v>131.59</v>
+      </c>
+      <c r="EM18" s="1">
+        <v>54.54</v>
+      </c>
+      <c r="EO18" s="1">
+        <v>45.44</v>
+      </c>
+      <c r="EQ18" s="1">
+        <v>47.92</v>
+      </c>
+      <c r="ES18" s="1">
+        <v>43.28</v>
+      </c>
+      <c r="EU18" s="1">
+        <v>54.37</v>
+      </c>
+      <c r="EW18" s="1">
+        <v>24.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="1">
+        <v>459334434</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>3</v>
+      </c>
+      <c r="W19" s="1">
+        <v>3</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CP19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV19" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX19" s="1">
+        <v>2</v>
+      </c>
+      <c r="CY19" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA19" s="1">
+        <v>2</v>
+      </c>
+      <c r="DB19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK19" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL19" s="1">
+        <v>2</v>
+      </c>
+      <c r="DM19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DN19" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DS19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV19" s="1">
+        <v>4</v>
+      </c>
+      <c r="DW19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX19" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY19" s="1">
+        <v>4</v>
+      </c>
+      <c r="DZ19" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB19" s="1">
+        <v>25</v>
+      </c>
+      <c r="EC19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG19" s="1">
+        <v>517.41999999999996</v>
+      </c>
+      <c r="EH19" s="1">
+        <v>147.33000000000001</v>
+      </c>
+      <c r="EK19" s="1">
+        <v>51.81</v>
+      </c>
+      <c r="EM19" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="EO19" s="1">
+        <v>87.89</v>
+      </c>
+      <c r="EQ19" s="1">
+        <v>48.03</v>
+      </c>
+      <c r="ES19" s="1">
+        <v>50.37</v>
+      </c>
+      <c r="EU19" s="1">
+        <v>57.26</v>
+      </c>
+      <c r="EW19" s="1">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>108</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="1">
+        <v>930014848</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
+        <v>5</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4</v>
+      </c>
+      <c r="V20" s="1">
+        <v>5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>4</v>
+      </c>
+      <c r="X20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ20" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA20" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE20" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI20" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ20" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CU20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW20" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY20" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE20" s="1">
+        <v>1</v>
+      </c>
+      <c r="DF20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DG20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DH20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DI20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DJ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DK20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DL20" s="1">
+        <v>4</v>
+      </c>
+      <c r="DM20" s="1">
+        <v>4</v>
+      </c>
+      <c r="DN20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DO20" s="1">
+        <v>5</v>
+      </c>
+      <c r="DP20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DS20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW20" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX20" s="1">
+        <v>5</v>
+      </c>
+      <c r="DY20" s="1">
+        <v>4</v>
+      </c>
+      <c r="DZ20" s="1">
+        <v>4</v>
+      </c>
+      <c r="EA20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB20" s="1">
+        <v>20</v>
+      </c>
+      <c r="EC20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG20" s="1">
+        <v>529.91</v>
+      </c>
+      <c r="EH20" s="1">
+        <v>74.83</v>
+      </c>
+      <c r="EK20" s="1">
+        <v>61.18</v>
+      </c>
+      <c r="EM20" s="1">
+        <v>86.79</v>
+      </c>
+      <c r="EO20" s="1">
+        <v>117.58</v>
+      </c>
+      <c r="EQ20" s="1">
+        <v>49.87</v>
+      </c>
+      <c r="ES20" s="1">
+        <v>42.75</v>
+      </c>
+      <c r="EU20" s="1">
+        <v>51.05</v>
+      </c>
+      <c r="EW20" s="1">
+        <v>45.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="1">
+        <v>465635602</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
+      <c r="R21" s="1">
+        <v>4</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>5</v>
+      </c>
+      <c r="U21" s="1">
+        <v>5</v>
+      </c>
+      <c r="V21" s="1">
+        <v>5</v>
+      </c>
+      <c r="W21" s="1">
+        <v>5</v>
+      </c>
+      <c r="X21" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR21" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS21" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BU21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BY21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CC21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CO21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CQ21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CS21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CU21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CW21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX21" s="1">
+        <v>5</v>
+      </c>
+      <c r="CY21" s="1">
+        <v>4</v>
+      </c>
+      <c r="CZ21" s="1">
+        <v>5</v>
+      </c>
+      <c r="DA21" s="1">
+        <v>5</v>
+      </c>
+      <c r="DB21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DC21" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD21" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DG21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH21" s="1">
+        <v>2</v>
+      </c>
+      <c r="DI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM21" s="1">
+        <v>2</v>
+      </c>
+      <c r="DN21" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DP21" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ21" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR21" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS21" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT21" s="1">
+        <v>2</v>
+      </c>
+      <c r="DU21" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DW21" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX21" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY21" s="1">
+        <v>4</v>
+      </c>
+      <c r="DZ21" s="1">
+        <v>4</v>
+      </c>
+      <c r="EA21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="EB21" s="1">
+        <v>22</v>
+      </c>
+      <c r="EC21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG21" s="1">
+        <v>379.87</v>
+      </c>
+      <c r="EH21" s="1">
+        <v>40.25</v>
+      </c>
+      <c r="EK21" s="1">
+        <v>46.27</v>
+      </c>
+      <c r="EM21" s="1">
+        <v>46.17</v>
+      </c>
+      <c r="EO21" s="1">
+        <v>46.54</v>
+      </c>
+      <c r="EQ21" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="ES21" s="1">
+        <v>46.42</v>
+      </c>
+      <c r="EU21" s="1">
+        <v>96.39</v>
+      </c>
+      <c r="EW21" s="1">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>112</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1175687431</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3</v>
+      </c>
+      <c r="V22" s="1">
+        <v>3</v>
+      </c>
+      <c r="W22" s="1">
+        <v>3</v>
+      </c>
+      <c r="X22" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS22" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT22" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW22" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX22" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY22" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ22" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF22" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ22" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV22" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY22" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DA22" s="1">
+        <v>4</v>
+      </c>
+      <c r="DB22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DH22" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI22" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ22" s="1">
+        <v>2</v>
+      </c>
+      <c r="DK22" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL22" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DN22" s="1">
+        <v>2</v>
+      </c>
+      <c r="DO22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DS22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY22" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ22" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB22" s="1">
+        <v>40</v>
+      </c>
+      <c r="EC22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EG22" s="1">
+        <v>440.69</v>
+      </c>
+      <c r="EH22" s="1">
+        <v>80.56</v>
+      </c>
+      <c r="EK22" s="1">
+        <v>39.93</v>
+      </c>
+      <c r="EM22" s="1">
+        <v>61.67</v>
+      </c>
+      <c r="EO22" s="1">
+        <v>38.11</v>
+      </c>
+      <c r="EQ22" s="1">
+        <v>91.6</v>
+      </c>
+      <c r="ES22" s="1">
+        <v>61.59</v>
+      </c>
+      <c r="EU22" s="1">
+        <v>50.33</v>
+      </c>
+      <c r="EW22" s="1">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="1">
+        <v>957915361</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4</v>
+      </c>
+      <c r="V23" s="1">
+        <v>4</v>
+      </c>
+      <c r="W23" s="1">
+        <v>3</v>
+      </c>
+      <c r="X23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR23" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS23" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT23" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BV23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW23" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BZ23" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CB23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE23" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH23" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ23" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL23" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CN23" s="1">
+        <v>4</v>
+      </c>
+      <c r="CO23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CP23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CQ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CU23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV23" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW23" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY23" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DB23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DL23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DN23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DP23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DU23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX23" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DZ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB23" s="1">
+        <v>28</v>
+      </c>
+      <c r="EC23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EG23" s="1">
+        <v>645.94000000000005</v>
+      </c>
+      <c r="EH23" s="1">
+        <v>23.77</v>
+      </c>
+      <c r="EK23" s="1">
+        <v>113.8</v>
+      </c>
+      <c r="EM23" s="1">
+        <v>108.52</v>
+      </c>
+      <c r="EO23" s="1">
+        <v>106.56</v>
+      </c>
+      <c r="EQ23" s="1">
+        <v>111.87</v>
+      </c>
+      <c r="ES23" s="1">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="EU23" s="1">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="EW23" s="1">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>117</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1975942798</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>3</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>3</v>
+      </c>
+      <c r="W24" s="1">
+        <v>3</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX24" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY24" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CB24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CH24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CW24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX24" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY24" s="1">
+        <v>2</v>
+      </c>
+      <c r="CZ24" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA24" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB24" s="1">
+        <v>2</v>
+      </c>
+      <c r="DC24" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD24" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE24" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF24" s="1">
+        <v>2</v>
+      </c>
+      <c r="DG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO24" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DV24" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW24" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX24" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY24" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ24" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="EB24" s="1">
+        <v>28</v>
+      </c>
+      <c r="EC24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="EG24" s="1">
+        <v>311.72000000000003</v>
+      </c>
+      <c r="EH24" s="1">
+        <v>47.31</v>
+      </c>
+      <c r="EK24" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="EM24" s="1">
+        <v>45.82</v>
+      </c>
+      <c r="EO24" s="1">
+        <v>27.65</v>
+      </c>
+      <c r="EQ24" s="1">
+        <v>59.22</v>
+      </c>
+      <c r="ES24" s="1">
+        <v>54.59</v>
+      </c>
+      <c r="EU24" s="1">
+        <v>30.35</v>
+      </c>
+      <c r="EW24" s="1">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="1">
+        <v>632756801</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>3</v>
+      </c>
+      <c r="W25" s="1">
+        <v>2</v>
+      </c>
+      <c r="X25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS25" s="1">
+        <v>3</v>
+      </c>
+      <c r="BT25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY25" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CN25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CP25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CU25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV25" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX25" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY25" s="1">
+        <v>4</v>
+      </c>
+      <c r="CZ25" s="1">
+        <v>3</v>
+      </c>
+      <c r="DA25" s="1">
+        <v>4</v>
+      </c>
+      <c r="DB25" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC25" s="1">
+        <v>4</v>
+      </c>
+      <c r="DD25" s="1">
+        <v>4</v>
+      </c>
+      <c r="DE25" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF25" s="1">
+        <v>5</v>
+      </c>
+      <c r="DG25" s="1">
+        <v>2</v>
+      </c>
+      <c r="DH25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL25" s="1">
+        <v>3</v>
+      </c>
+      <c r="DM25" s="1">
+        <v>2</v>
+      </c>
+      <c r="DN25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO25" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP25" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR25" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU25" s="1">
+        <v>2</v>
+      </c>
+      <c r="DV25" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW25" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX25" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY25" s="1">
+        <v>2</v>
+      </c>
+      <c r="DZ25" s="1">
+        <v>2</v>
+      </c>
+      <c r="EA25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB25" s="1">
+        <v>28</v>
+      </c>
+      <c r="EC25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="EE25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EG25" s="1">
+        <v>780.95</v>
+      </c>
+      <c r="EH25" s="1">
+        <v>221.32</v>
+      </c>
+      <c r="EK25" s="1">
+        <v>96.04</v>
+      </c>
+      <c r="EM25" s="1">
+        <v>134.61000000000001</v>
+      </c>
+      <c r="EO25" s="1">
+        <v>62.85</v>
+      </c>
+      <c r="EQ25" s="1">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="ES25" s="1">
+        <v>95.73</v>
+      </c>
+      <c r="EU25" s="1">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="EW25" s="1">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>121</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1871435847</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>4</v>
+      </c>
+      <c r="S26" s="1">
+        <v>3</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1">
+        <v>3</v>
+      </c>
+      <c r="V26" s="1">
+        <v>3</v>
+      </c>
+      <c r="W26" s="1">
+        <v>3</v>
+      </c>
+      <c r="X26" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH26" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU26" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW26" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY26" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ26" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CB26" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR26" s="1">
+        <v>4</v>
+      </c>
+      <c r="CS26" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT26" s="1">
+        <v>4</v>
+      </c>
+      <c r="CU26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW26" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY26" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ26" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA26" s="1">
+        <v>2</v>
+      </c>
+      <c r="DB26" s="1">
+        <v>2</v>
+      </c>
+      <c r="DC26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG26" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH26" s="1">
+        <v>2</v>
+      </c>
+      <c r="DI26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DJ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK26" s="1">
+        <v>2</v>
+      </c>
+      <c r="DL26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DM26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DN26" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP26" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR26" s="1">
+        <v>4</v>
+      </c>
+      <c r="DS26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT26" s="1">
+        <v>2</v>
+      </c>
+      <c r="DU26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY26" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ26" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB26" s="1">
+        <v>27</v>
+      </c>
+      <c r="EC26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EG26" s="1">
+        <v>793.54</v>
+      </c>
+      <c r="EH26" s="1">
+        <v>154.58000000000001</v>
+      </c>
+      <c r="EK26" s="1">
+        <v>93.39</v>
+      </c>
+      <c r="EM26" s="1">
+        <v>101.34</v>
+      </c>
+      <c r="EO26" s="1">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="EQ26" s="1">
+        <v>100.74</v>
+      </c>
+      <c r="ES26" s="1">
+        <v>104.97</v>
+      </c>
+      <c r="EU26" s="1">
+        <v>124.24</v>
+      </c>
+      <c r="EW26" s="1">
+        <v>34.520000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>122</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1441331163</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>3</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4</v>
+      </c>
+      <c r="V27" s="1">
+        <v>4</v>
+      </c>
+      <c r="W27" s="1">
+        <v>5</v>
+      </c>
+      <c r="X27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AU27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AX27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AY27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD27" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR27" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX27" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY27" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN27" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS27" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW27" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX27" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY27" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF27" s="1">
+        <v>5</v>
+      </c>
+      <c r="DG27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DJ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DM27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DP27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DT27" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DV27" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW27" s="1">
+        <v>4</v>
+      </c>
+      <c r="DX27" s="1">
+        <v>2</v>
+      </c>
+      <c r="DY27" s="1">
+        <v>4</v>
+      </c>
+      <c r="DZ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="EA27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB27" s="1">
+        <v>34</v>
+      </c>
+      <c r="EC27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="EG27" s="1">
+        <v>414.26</v>
+      </c>
+      <c r="EH27" s="1">
+        <v>24.81</v>
+      </c>
+      <c r="EK27" s="1">
+        <v>90.17</v>
+      </c>
+      <c r="EM27" s="1">
+        <v>55.42</v>
+      </c>
+      <c r="EO27" s="1">
+        <v>59.24</v>
+      </c>
+      <c r="EQ27" s="1">
+        <v>48.53</v>
+      </c>
+      <c r="ES27" s="1">
+        <v>58</v>
+      </c>
+      <c r="EU27" s="1">
+        <v>57.32</v>
+      </c>
+      <c r="EW27" s="1">
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>123</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="1">
+        <v>895160321</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+      <c r="P28" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1">
+        <v>2</v>
+      </c>
+      <c r="S28" s="1">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3</v>
+      </c>
+      <c r="U28" s="1">
+        <v>3</v>
+      </c>
+      <c r="V28" s="1">
+        <v>3</v>
+      </c>
+      <c r="W28" s="1">
+        <v>3</v>
+      </c>
+      <c r="X28" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ28" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK28" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO28" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP28" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS28" s="1">
+        <v>2</v>
+      </c>
+      <c r="BT28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU28" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV28" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY28" s="1">
+        <v>3</v>
+      </c>
+      <c r="BZ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CB28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC28" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN28" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO28" s="1">
+        <v>1</v>
+      </c>
+      <c r="CP28" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS28" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT28" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV28" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY28" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ28" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB28" s="1">
+        <v>2</v>
+      </c>
+      <c r="DC28" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD28" s="1">
+        <v>4</v>
+      </c>
+      <c r="DE28" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF28" s="1">
+        <v>4</v>
+      </c>
+      <c r="DG28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DM28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ28" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DS28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT28" s="1">
+        <v>2</v>
+      </c>
+      <c r="DU28" s="1">
+        <v>2</v>
+      </c>
+      <c r="DV28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW28" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX28" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY28" s="1">
+        <v>4</v>
+      </c>
+      <c r="DZ28" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB28" s="1">
+        <v>28</v>
+      </c>
+      <c r="EC28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG28" s="1">
+        <v>717.33</v>
+      </c>
+      <c r="EH28" s="1">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="EK28" s="1">
+        <v>129.84</v>
+      </c>
+      <c r="EM28" s="1">
+        <v>90.12</v>
+      </c>
+      <c r="EO28" s="1">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="EQ28" s="1">
+        <v>74.11</v>
+      </c>
+      <c r="ES28" s="1">
+        <v>158.77000000000001</v>
+      </c>
+      <c r="EU28" s="1">
+        <v>94.27</v>
+      </c>
+      <c r="EW28" s="1">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>124</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="1">
+        <v>202284854</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>4</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2</v>
+      </c>
+      <c r="S29" s="1">
+        <v>3</v>
+      </c>
+      <c r="T29" s="1">
+        <v>4</v>
+      </c>
+      <c r="U29" s="1">
+        <v>4</v>
+      </c>
+      <c r="V29" s="1">
+        <v>3</v>
+      </c>
+      <c r="W29" s="1">
+        <v>3</v>
+      </c>
+      <c r="X29" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ29" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BT29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY29" s="1">
+        <v>3</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG29" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL29" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ29" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR29" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS29" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV29" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CX29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CZ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DC29" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL29" s="1">
+        <v>3</v>
+      </c>
+      <c r="DM29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DN29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO29" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DU29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DV29" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW29" s="1">
+        <v>2</v>
+      </c>
+      <c r="DX29" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY29" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ29" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB29" s="1">
+        <v>20</v>
+      </c>
+      <c r="EC29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG29" s="1">
+        <v>680.74</v>
+      </c>
+      <c r="EH29" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="EK29" s="1">
+        <v>167.98</v>
+      </c>
+      <c r="EM29" s="1">
+        <v>165.5</v>
+      </c>
+      <c r="EO29" s="1">
+        <v>76.33</v>
+      </c>
+      <c r="EQ29" s="1">
+        <v>78.72</v>
+      </c>
+      <c r="ES29" s="1">
+        <v>49.81</v>
+      </c>
+      <c r="EU29" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="EW29" s="1">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1103384541</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3</v>
+      </c>
+      <c r="P30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>4</v>
+      </c>
+      <c r="S30" s="1">
+        <v>3</v>
+      </c>
+      <c r="T30" s="1">
+        <v>3</v>
+      </c>
+      <c r="U30" s="1">
+        <v>3</v>
+      </c>
+      <c r="V30" s="1">
+        <v>3</v>
+      </c>
+      <c r="W30" s="1">
+        <v>3</v>
+      </c>
+      <c r="X30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BT30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BU30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BY30" s="1">
+        <v>5</v>
+      </c>
+      <c r="BZ30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CA30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CC30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CF30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CG30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CH30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CI30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CK30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CL30" s="1">
+        <v>5</v>
+      </c>
+      <c r="CM30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CN30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CP30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CQ30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CU30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW30" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX30" s="1">
+        <v>2</v>
+      </c>
+      <c r="CY30" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ30" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DV30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX30" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY30" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="EA30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB30" s="1">
+        <v>24</v>
+      </c>
+      <c r="EC30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG30" s="1">
+        <v>265.58999999999997</v>
+      </c>
+      <c r="EH30" s="1">
+        <v>21.91</v>
+      </c>
+      <c r="EK30" s="1">
+        <v>24.53</v>
+      </c>
+      <c r="EM30" s="1">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="EO30" s="1">
+        <v>32.69</v>
+      </c>
+      <c r="EQ30" s="1">
+        <v>63.97</v>
+      </c>
+      <c r="ES30" s="1">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="EU30" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="EW30" s="1">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>126</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1319187297</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <v>4</v>
+      </c>
+      <c r="P31" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1">
+        <v>3</v>
+      </c>
+      <c r="U31" s="1">
+        <v>4</v>
+      </c>
+      <c r="V31" s="1">
+        <v>4</v>
+      </c>
+      <c r="W31" s="1">
+        <v>4</v>
+      </c>
+      <c r="X31" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BR31" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT31" s="1">
+        <v>5</v>
+      </c>
+      <c r="BU31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY31" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CL31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM31" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CO31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CP31" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ31" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CS31" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT31" s="1">
+        <v>3</v>
+      </c>
+      <c r="CU31" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV31" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW31" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CY31" s="1">
+        <v>4</v>
+      </c>
+      <c r="CZ31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DA31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DB31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DD31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DG31" s="1">
+        <v>2</v>
+      </c>
+      <c r="DH31" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DJ31" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK31" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DM31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DN31" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ31" s="1">
+        <v>2</v>
+      </c>
+      <c r="DR31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DS31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DW31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DX31" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY31" s="1">
+        <v>4</v>
+      </c>
+      <c r="DZ31" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB31" s="1">
+        <v>48</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE31" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EG31" s="1">
+        <v>690.72</v>
+      </c>
+      <c r="EH31" s="1">
+        <v>151.97999999999999</v>
+      </c>
+      <c r="EK31" s="1">
+        <v>87.62</v>
+      </c>
+      <c r="EM31" s="1">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="EO31" s="1">
+        <v>84.87</v>
+      </c>
+      <c r="EQ31" s="1">
+        <v>70.56</v>
+      </c>
+      <c r="ES31" s="1">
+        <v>157.02000000000001</v>
+      </c>
+      <c r="EU31" s="1">
+        <v>56.22</v>
+      </c>
+      <c r="EW31" s="1">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>127</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1648277100</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+      <c r="N32" s="1">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4</v>
+      </c>
+      <c r="R32" s="1">
+        <v>2</v>
+      </c>
+      <c r="S32" s="1">
+        <v>5</v>
+      </c>
+      <c r="T32" s="1">
+        <v>2</v>
+      </c>
+      <c r="U32" s="1">
+        <v>2</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK32" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>3</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW32" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX32" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>3</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB32" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI32" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ32" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK32" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL32" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CN32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CO32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CQ32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CR32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CS32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CT32" s="1">
+        <v>5</v>
+      </c>
+      <c r="CU32" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV32" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW32" s="1">
+        <v>3</v>
+      </c>
+      <c r="CX32" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY32" s="1">
+        <v>4</v>
+      </c>
+      <c r="CZ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA32" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DG32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DJ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM32" s="1">
+        <v>3</v>
+      </c>
+      <c r="DN32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO32" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DT32" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DV32" s="1">
+        <v>5</v>
+      </c>
+      <c r="DW32" s="1">
+        <v>5</v>
+      </c>
+      <c r="DX32" s="1">
+        <v>2</v>
+      </c>
+      <c r="DY32" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ32" s="1">
+        <v>2</v>
+      </c>
+      <c r="EA32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB32" s="1">
+        <v>22</v>
+      </c>
+      <c r="EC32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG32" s="1">
+        <v>436.05</v>
+      </c>
+      <c r="EH32" s="1">
+        <v>58.87</v>
+      </c>
+      <c r="EK32" s="1">
+        <v>56.26</v>
+      </c>
+      <c r="EM32" s="1">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="EO32" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="EQ32" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="ES32" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="EU32" s="1">
+        <v>113.97</v>
+      </c>
+      <c r="EW32" s="1">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1148441185</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>4</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1">
+        <v>3</v>
+      </c>
+      <c r="T33" s="1">
+        <v>3</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3</v>
+      </c>
+      <c r="V33" s="1">
+        <v>3</v>
+      </c>
+      <c r="W33" s="1">
+        <v>4</v>
+      </c>
+      <c r="X33" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR33" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS33" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT33" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU33" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV33" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW33" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX33" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY33" s="1">
+        <v>3</v>
+      </c>
+      <c r="BZ33" s="1">
+        <v>5</v>
+      </c>
+      <c r="CA33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CL33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CN33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CP33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CQ33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CS33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT33" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CX33" s="1">
+        <v>4</v>
+      </c>
+      <c r="CY33" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ33" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC33" s="1">
+        <v>4</v>
+      </c>
+      <c r="DD33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE33" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF33" s="1">
+        <v>2</v>
+      </c>
+      <c r="DG33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DH33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DI33" s="1">
+        <v>2</v>
+      </c>
+      <c r="DJ33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DK33" s="1">
+        <v>4</v>
+      </c>
+      <c r="DL33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DM33" s="1">
+        <v>2</v>
+      </c>
+      <c r="DN33" s="1">
+        <v>4</v>
+      </c>
+      <c r="DO33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP33" s="1">
+        <v>4</v>
+      </c>
+      <c r="DQ33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DS33" s="1">
+        <v>2</v>
+      </c>
+      <c r="DT33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DV33" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW33" s="1">
+        <v>2</v>
+      </c>
+      <c r="DX33" s="1">
+        <v>4</v>
+      </c>
+      <c r="DY33" s="1">
+        <v>2</v>
+      </c>
+      <c r="DZ33" s="1">
+        <v>3</v>
+      </c>
+      <c r="EA33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB33" s="1">
+        <v>222222</v>
+      </c>
+      <c r="EC33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG33" s="1">
+        <v>278.39</v>
+      </c>
+      <c r="EH33" s="1">
+        <v>55.31</v>
+      </c>
+      <c r="EK33" s="1">
+        <v>21.96</v>
+      </c>
+      <c r="EM33" s="1">
+        <v>24.49</v>
+      </c>
+      <c r="EO33" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="EQ33" s="1">
+        <v>29.54</v>
+      </c>
+      <c r="ES33" s="1">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="EU33" s="1">
+        <v>35.99</v>
+      </c>
+      <c r="EW33" s="1">
+        <v>40.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>130</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1713486428</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>2</v>
+      </c>
+      <c r="V34" s="1">
+        <v>3</v>
+      </c>
+      <c r="W34" s="1">
+        <v>4</v>
+      </c>
+      <c r="X34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BC34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR34" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BX34" s="1">
+        <v>3</v>
+      </c>
+      <c r="BY34" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ34" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC34" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CF34" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG34" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CK34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CQ34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CR34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CW34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX34" s="1">
+        <v>2</v>
+      </c>
+      <c r="CY34" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ34" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA34" s="1">
+        <v>2</v>
+      </c>
+      <c r="DB34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DC34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL34" s="1">
+        <v>2</v>
+      </c>
+      <c r="DM34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP34" s="1">
+        <v>2</v>
+      </c>
+      <c r="DQ34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DR34" s="1">
+        <v>2</v>
+      </c>
+      <c r="DS34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DU34" s="1">
+        <v>1</v>
+      </c>
+      <c r="DV34" s="1">
+        <v>4</v>
+      </c>
+      <c r="DW34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY34" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ34" s="1">
+        <v>5</v>
+      </c>
+      <c r="EA34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB34" s="1">
+        <v>36</v>
+      </c>
+      <c r="EC34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="EE34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="EG34" s="1">
+        <v>635.47</v>
+      </c>
+      <c r="EH34" s="1">
+        <v>48.56</v>
+      </c>
+      <c r="EK34" s="1">
+        <v>99.76</v>
+      </c>
+      <c r="EM34" s="1">
+        <v>74.23</v>
+      </c>
+      <c r="EO34" s="1">
+        <v>125.09</v>
+      </c>
+      <c r="EQ34" s="1">
+        <v>113.02</v>
+      </c>
+      <c r="ES34" s="1">
+        <v>68.78</v>
+      </c>
+      <c r="EU34" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="EW34" s="1">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:153" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1185516048</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>4</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>4</v>
+      </c>
+      <c r="P35" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4</v>
+      </c>
+      <c r="R35" s="1">
+        <v>4</v>
+      </c>
+      <c r="S35" s="1">
+        <v>4</v>
+      </c>
+      <c r="T35" s="1">
+        <v>4</v>
+      </c>
+      <c r="U35" s="1">
+        <v>3</v>
+      </c>
+      <c r="V35" s="1">
+        <v>5</v>
+      </c>
+      <c r="W35" s="1">
+        <v>4</v>
+      </c>
+      <c r="X35" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>2</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG35" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI35" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ35" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>5</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN35" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR35" s="1">
+        <v>3</v>
+      </c>
+      <c r="BS35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW35" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY35" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CD35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF35" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH35" s="1">
+        <v>5</v>
+      </c>
+      <c r="CI35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM35" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN35" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CP35" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CR35" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS35" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CU35" s="1">
+        <v>4</v>
+      </c>
+      <c r="CV35" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW35" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CY35" s="1">
+        <v>3</v>
+      </c>
+      <c r="CZ35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="DB35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DC35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DE35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DF35" s="1">
+        <v>3</v>
+      </c>
+      <c r="DG35" s="1">
+        <v>1</v>
+      </c>
+      <c r="DH35" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DJ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK35" s="1">
+        <v>1</v>
+      </c>
+      <c r="DL35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DM35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DN35" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO35" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP35" s="1">
+        <v>3</v>
+      </c>
+      <c r="DQ35" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR35" s="1">
+        <v>4</v>
+      </c>
+      <c r="DS35" s="1">
+        <v>4</v>
+      </c>
+      <c r="DT35" s="1">
+        <v>3</v>
+      </c>
+      <c r="DU35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DV35" s="1">
+        <v>3</v>
+      </c>
+      <c r="DW35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DX35" s="1">
+        <v>3</v>
+      </c>
+      <c r="DY35" s="1">
+        <v>2</v>
+      </c>
+      <c r="DZ35" s="1">
+        <v>5</v>
+      </c>
+      <c r="EA35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="EB35" s="1">
+        <v>26</v>
+      </c>
+      <c r="EC35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EE35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EG35" s="1">
+        <v>566.35</v>
+      </c>
+      <c r="EH35" s="1">
+        <v>65.53</v>
+      </c>
+      <c r="EK35" s="1">
+        <v>71.91</v>
+      </c>
+      <c r="EM35" s="1">
+        <v>63.04</v>
+      </c>
+      <c r="EO35" s="1">
+        <v>76.19</v>
+      </c>
+      <c r="EQ35" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="ES35" s="1">
+        <v>59.93</v>
+      </c>
+      <c r="EU35" s="1">
+        <v>145.85</v>
+      </c>
+      <c r="EW35" s="1">
+        <v>20.8</v>
       </c>
     </row>
   </sheetData>
